--- a/Time_Test/Average_Times.xlsx
+++ b/Time_Test/Average_Times.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysj30\Documents\GitHub\GPT-Neo-Implementation-KJ\Time_Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D244E9-8D2D-44A6-897E-A9FF65D3CA73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB121352-8FA6-46E0-83BA-6DF1323AC101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,13 +39,13 @@
     <t>Model (GPT Neo)</t>
   </si>
   <si>
-    <t>CPU_avg_time_per_iteration_in_seconds</t>
-  </si>
-  <si>
-    <t>GPU_avg_time_per_iteration_in_seconds</t>
-  </si>
-  <si>
-    <t>TPU_avg_time_per_iteration_in_seconds</t>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>GPU</t>
+  </si>
+  <si>
+    <t>TPU</t>
   </si>
 </sst>
 </file>
@@ -365,8 +365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,10 +406,28 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>163</v>
+      </c>
+      <c r="C3">
+        <v>154</v>
+      </c>
+      <c r="D3">
+        <v>33.549999999999997</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
+      </c>
+      <c r="B4">
+        <v>319.75</v>
+      </c>
+      <c r="C4">
+        <v>308.5</v>
+      </c>
+      <c r="D4">
+        <v>60.77</v>
       </c>
     </row>
   </sheetData>
